--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>804</v>
+        <v>810.6731951491925</v>
       </c>
       <c r="C2">
-        <v>1150</v>
+        <v>1157.387157691246</v>
       </c>
       <c r="D2">
-        <v>1345</v>
+        <v>1354.354347540363</v>
       </c>
       <c r="E2">
-        <v>1498</v>
+        <v>1505.730094935563</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>847</v>
+        <v>853.6162607233118</v>
       </c>
       <c r="C3">
-        <v>1200</v>
+        <v>1208.207581561454</v>
       </c>
       <c r="D3">
-        <v>1395</v>
+        <v>1401.132457741924</v>
       </c>
       <c r="E3">
-        <v>1537</v>
+        <v>1543.621119192856</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>727</v>
+        <v>734.5948601966046</v>
       </c>
       <c r="C4">
-        <v>1057</v>
+        <v>1063.700906389054</v>
       </c>
       <c r="D4">
-        <v>1253</v>
+        <v>1261.470515273808</v>
       </c>
       <c r="E4">
-        <v>1415</v>
+        <v>1421.612905331771</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>909</v>
+        <v>915.9270000733128</v>
       </c>
       <c r="C5">
-        <v>1274</v>
+        <v>1281.062412258313</v>
       </c>
       <c r="D5">
-        <v>1445</v>
+        <v>1454.593041708381</v>
       </c>
       <c r="E5">
-        <v>1593</v>
+        <v>1599.557046887749</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>893</v>
+        <v>900.2329883775661</v>
       </c>
       <c r="C6">
-        <v>1254</v>
+        <v>1262.312376596757</v>
       </c>
       <c r="D6">
-        <v>1430</v>
+        <v>1437.299634013683</v>
       </c>
       <c r="E6">
-        <v>1580</v>
+        <v>1585.162946869089</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>934</v>
+        <v>938.8517375560593</v>
       </c>
       <c r="C7">
-        <v>1298</v>
+        <v>1305.139994837836</v>
       </c>
       <c r="D7">
-        <v>1480</v>
+        <v>1488.506807391738</v>
       </c>
       <c r="E7">
-        <v>1607</v>
+        <v>1612.1304178267</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>827</v>
+        <v>833.1799429183484</v>
       </c>
       <c r="C8">
-        <v>1182</v>
+        <v>1187.049016695813</v>
       </c>
       <c r="D8">
-        <v>1389</v>
+        <v>1396.223082153899</v>
       </c>
       <c r="E8">
-        <v>1516</v>
+        <v>1524.199078212293</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>940</v>
+        <v>945.7389134525196</v>
       </c>
       <c r="C9">
-        <v>1310</v>
+        <v>1317.148662192248</v>
       </c>
       <c r="D9">
-        <v>1495</v>
+        <v>1501.802711532365</v>
       </c>
       <c r="E9">
-        <v>1616</v>
+        <v>1625.195807347984</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>957</v>
+        <v>961.3154436913049</v>
       </c>
       <c r="C10">
-        <v>1311</v>
+        <v>1315.913788041324</v>
       </c>
       <c r="D10">
-        <v>1472</v>
+        <v>1473.909083247515</v>
       </c>
       <c r="E10">
-        <v>1565</v>
+        <v>1570.125201648339</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>947</v>
+        <v>952.5553249171585</v>
       </c>
       <c r="C11">
-        <v>1297</v>
+        <v>1302.951897844415</v>
       </c>
       <c r="D11">
-        <v>1450</v>
+        <v>1459.287229046187</v>
       </c>
       <c r="E11">
-        <v>1550</v>
+        <v>1555.234797529095</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>871</v>
+        <v>874.7493301769194</v>
       </c>
       <c r="C12">
-        <v>1151</v>
+        <v>1157.343514172884</v>
       </c>
       <c r="D12">
-        <v>1245</v>
+        <v>1251.385818327302</v>
       </c>
       <c r="E12">
-        <v>1293</v>
+        <v>1297.715867080148</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>951</v>
+        <v>956.7539180159872</v>
       </c>
       <c r="C13">
-        <v>1302</v>
+        <v>1308.382254672927</v>
       </c>
       <c r="D13">
-        <v>1462</v>
+        <v>1464.790387914299</v>
       </c>
       <c r="E13">
-        <v>1554</v>
+        <v>1560.211442101217</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Fiets.xlsx
@@ -391,7 +391,7 @@
         <v>810.6731951491925</v>
       </c>
       <c r="C2">
-        <v>1157.387157691246</v>
+        <v>1157.387157691247</v>
       </c>
       <c r="D2">
         <v>1354.354347540363</v>
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>853.6162607233118</v>
+        <v>853.6162607233116</v>
       </c>
       <c r="C3">
         <v>1208.207581561454</v>
@@ -414,7 +414,7 @@
         <v>1401.132457741924</v>
       </c>
       <c r="E3">
-        <v>1543.621119192856</v>
+        <v>1543.621119192858</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>734.5948601966046</v>
+        <v>734.5948601966044</v>
       </c>
       <c r="C4">
-        <v>1063.700906389054</v>
+        <v>1063.700906389055</v>
       </c>
       <c r="D4">
         <v>1261.470515273808</v>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>915.9270000733128</v>
+        <v>915.927000073313</v>
       </c>
       <c r="C5">
         <v>1281.062412258313</v>
@@ -448,7 +448,7 @@
         <v>1454.593041708381</v>
       </c>
       <c r="E5">
-        <v>1599.557046887749</v>
+        <v>1599.55704688775</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>900.2329883775661</v>
+        <v>900.2329883775667</v>
       </c>
       <c r="C6">
-        <v>1262.312376596757</v>
+        <v>1262.312376596758</v>
       </c>
       <c r="D6">
-        <v>1437.299634013683</v>
+        <v>1437.299634013682</v>
       </c>
       <c r="E6">
-        <v>1585.162946869089</v>
+        <v>1585.16294686909</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>938.8517375560593</v>
+        <v>938.8517375560591</v>
       </c>
       <c r="C7">
-        <v>1305.139994837836</v>
+        <v>1305.139994837837</v>
       </c>
       <c r="D7">
-        <v>1488.506807391738</v>
+        <v>1488.506807391737</v>
       </c>
       <c r="E7">
-        <v>1612.1304178267</v>
+        <v>1612.130417826699</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>833.1799429183484</v>
+        <v>833.1799429183477</v>
       </c>
       <c r="C8">
         <v>1187.049016695813</v>
@@ -499,7 +499,7 @@
         <v>1396.223082153899</v>
       </c>
       <c r="E8">
-        <v>1524.199078212293</v>
+        <v>1524.199078212294</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>945.7389134525196</v>
+        <v>945.7389134525188</v>
       </c>
       <c r="C9">
-        <v>1317.148662192248</v>
+        <v>1317.148662192249</v>
       </c>
       <c r="D9">
-        <v>1501.802711532365</v>
+        <v>1501.802711532366</v>
       </c>
       <c r="E9">
-        <v>1625.195807347984</v>
+        <v>1625.195807347985</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>961.3154436913049</v>
+        <v>961.3154436913053</v>
       </c>
       <c r="C10">
-        <v>1315.913788041324</v>
+        <v>1315.913788041323</v>
       </c>
       <c r="D10">
-        <v>1473.909083247515</v>
+        <v>1473.909083247516</v>
       </c>
       <c r="E10">
-        <v>1570.125201648339</v>
+        <v>1570.12520164834</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>952.5553249171585</v>
+        <v>952.5553249171589</v>
       </c>
       <c r="C11">
         <v>1302.951897844415</v>
       </c>
       <c r="D11">
-        <v>1459.287229046187</v>
+        <v>1459.287229046188</v>
       </c>
       <c r="E11">
-        <v>1555.234797529095</v>
+        <v>1555.234797529094</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>874.7493301769194</v>
+        <v>874.7493301769192</v>
       </c>
       <c r="C12">
         <v>1157.343514172884</v>
       </c>
       <c r="D12">
-        <v>1251.385818327302</v>
+        <v>1251.385818327303</v>
       </c>
       <c r="E12">
         <v>1297.715867080148</v>
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>956.7539180159872</v>
+        <v>956.7539180159869</v>
       </c>
       <c r="C13">
-        <v>1308.382254672927</v>
+        <v>1308.382254672926</v>
       </c>
       <c r="D13">
         <v>1464.790387914299</v>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>810.6731951491925</v>
+        <v>811</v>
       </c>
       <c r="C2">
-        <v>1157.387157691247</v>
+        <v>1157</v>
       </c>
       <c r="D2">
-        <v>1354.354347540363</v>
+        <v>1354</v>
       </c>
       <c r="E2">
-        <v>1505.730094935563</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>853.6162607233116</v>
+        <v>854</v>
       </c>
       <c r="C3">
-        <v>1208.207581561454</v>
+        <v>1208</v>
       </c>
       <c r="D3">
-        <v>1401.132457741924</v>
+        <v>1401</v>
       </c>
       <c r="E3">
-        <v>1543.621119192858</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>734.5948601966044</v>
+        <v>735</v>
       </c>
       <c r="C4">
-        <v>1063.700906389055</v>
+        <v>1064</v>
       </c>
       <c r="D4">
-        <v>1261.470515273808</v>
+        <v>1261</v>
       </c>
       <c r="E4">
-        <v>1421.612905331771</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>915.927000073313</v>
+        <v>916</v>
       </c>
       <c r="C5">
-        <v>1281.062412258313</v>
+        <v>1281</v>
       </c>
       <c r="D5">
-        <v>1454.593041708381</v>
+        <v>1455</v>
       </c>
       <c r="E5">
-        <v>1599.55704688775</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>900.2329883775667</v>
+        <v>900</v>
       </c>
       <c r="C6">
-        <v>1262.312376596758</v>
+        <v>1262</v>
       </c>
       <c r="D6">
-        <v>1437.299634013682</v>
+        <v>1437</v>
       </c>
       <c r="E6">
-        <v>1585.16294686909</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>938.8517375560591</v>
+        <v>939</v>
       </c>
       <c r="C7">
-        <v>1305.139994837837</v>
+        <v>1305</v>
       </c>
       <c r="D7">
-        <v>1488.506807391737</v>
+        <v>1489</v>
       </c>
       <c r="E7">
-        <v>1612.130417826699</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>833.1799429183477</v>
+        <v>833</v>
       </c>
       <c r="C8">
-        <v>1187.049016695813</v>
+        <v>1187</v>
       </c>
       <c r="D8">
-        <v>1396.223082153899</v>
+        <v>1396</v>
       </c>
       <c r="E8">
-        <v>1524.199078212294</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>945.7389134525188</v>
+        <v>946</v>
       </c>
       <c r="C9">
-        <v>1317.148662192249</v>
+        <v>1317</v>
       </c>
       <c r="D9">
-        <v>1501.802711532366</v>
+        <v>1502</v>
       </c>
       <c r="E9">
-        <v>1625.195807347985</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>961.3154436913053</v>
+        <v>961</v>
       </c>
       <c r="C10">
-        <v>1315.913788041323</v>
+        <v>1316</v>
       </c>
       <c r="D10">
-        <v>1473.909083247516</v>
+        <v>1474</v>
       </c>
       <c r="E10">
-        <v>1570.12520164834</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>952.5553249171589</v>
+        <v>953</v>
       </c>
       <c r="C11">
-        <v>1302.951897844415</v>
+        <v>1303</v>
       </c>
       <c r="D11">
-        <v>1459.287229046188</v>
+        <v>1459</v>
       </c>
       <c r="E11">
-        <v>1555.234797529094</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>874.7493301769192</v>
+        <v>875</v>
       </c>
       <c r="C12">
-        <v>1157.343514172884</v>
+        <v>1157</v>
       </c>
       <c r="D12">
-        <v>1251.385818327303</v>
+        <v>1251</v>
       </c>
       <c r="E12">
-        <v>1297.715867080148</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>956.7539180159869</v>
+        <v>957</v>
       </c>
       <c r="C13">
-        <v>1308.382254672926</v>
+        <v>1308</v>
       </c>
       <c r="D13">
-        <v>1464.790387914299</v>
+        <v>1465</v>
       </c>
       <c r="E13">
-        <v>1560.211442101217</v>
+        <v>1560</v>
       </c>
     </row>
   </sheetData>
